--- a/biology/Botanique/Frau_Karl_Druschki/Frau_Karl_Druschki.xlsx
+++ b/biology/Botanique/Frau_Karl_Druschki/Frau_Karl_Druschki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Frau Karl Druschki' (ou 'Reine des Neiges') est un cultivar de rosier obtenu en 1901 par le rosiériste allemand Peter Lambert. Il est issu du croisement 'Merveille de Lyon' (Pernet père, 1882) x 'Madame Caroline Testout' (Pernet-Ducher, 1890)[2]. Il doit son nom à l'épouse du président de l'époque de la Société allemande des amis des roses.
+'Frau Karl Druschki' (ou 'Reine des Neiges') est un cultivar de rosier obtenu en 1901 par le rosiériste allemand Peter Lambert. Il est issu du croisement 'Merveille de Lyon' (Pernet père, 1882) x 'Madame Caroline Testout' (Pernet-Ducher, 1890). Il doit son nom à l'épouse du président de l'époque de la Société allemande des amis des roses.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce rosier s'élève à 200 cm en moyenne pour 90 cm à 120 cm d'envergure[3]. Il se cultive en petit grimpant ou en arbuste[4]. Son feuillage dense est vert foncé avec des rameaux très épineux. Ses fleurs sans parfum sont d'un blanc parfaitement pur (25 à 40 pétales en coupe), ce qui en fait un rosier toujours très prisé. Elles fleurissent en bouquets à la fin mai et en juin, puis refleurissent de manière moins abondante tout au long de la saison.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce rosier s'élève à 200 cm en moyenne pour 90 cm à 120 cm d'envergure. Il se cultive en petit grimpant ou en arbuste. Son feuillage dense est vert foncé avec des rameaux très épineux. Ses fleurs sans parfum sont d'un blanc parfaitement pur (25 à 40 pétales en coupe), ce qui en fait un rosier toujours très prisé. Elles fleurissent en bouquets à la fin mai et en juin, puis refleurissent de manière moins abondante tout au long de la saison.
 Ce rosier est très résistant aux hivers froids, puisque sa zone de rusticité est de 4b. Il craint les climats trop humides.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Descendance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>'Frau Karl Druschki' a donné naissance à des cultivars fameux, comme 
 'Commandeur Jules Gravereaux' (Croibier 1906, par croisement avec 'Liberty'),
